--- a/natmiOut/YoungD0/LR-pairs_lrc2p/App-Cav1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/App-Cav1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="H2">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="I2">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="J2">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.75439625905661</v>
+        <v>505.8908573333333</v>
       </c>
       <c r="N2">
-        <v>67.75439625905661</v>
+        <v>1517.672572</v>
       </c>
       <c r="O2">
-        <v>0.2441837656042616</v>
+        <v>0.7018211771568338</v>
       </c>
       <c r="P2">
-        <v>0.2441837656042616</v>
+        <v>0.7018211771568337</v>
       </c>
       <c r="Q2">
-        <v>6726.41706346946</v>
+        <v>53014.73172196606</v>
       </c>
       <c r="R2">
-        <v>6726.41706346946</v>
+        <v>477132.5854976946</v>
       </c>
       <c r="S2">
-        <v>0.09188008835558668</v>
+        <v>0.2717747198964088</v>
       </c>
       <c r="T2">
-        <v>0.09188008835558668</v>
+        <v>0.2717747198964088</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="H3">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="I3">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="J3">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.9811983921349</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N3">
-        <v>86.9811983921349</v>
+        <v>264.024102</v>
       </c>
       <c r="O3">
-        <v>0.3134762868959047</v>
+        <v>0.1220933352041998</v>
       </c>
       <c r="P3">
-        <v>0.3134762868959047</v>
+        <v>0.1220933352041997</v>
       </c>
       <c r="Q3">
-        <v>8635.186045033544</v>
+        <v>9222.784409431235</v>
       </c>
       <c r="R3">
-        <v>8635.186045033544</v>
+        <v>83005.05968488113</v>
       </c>
       <c r="S3">
-        <v>0.1179530869552382</v>
+        <v>0.04727968185679967</v>
       </c>
       <c r="T3">
-        <v>0.1179530869552382</v>
+        <v>0.04727968185679966</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="H4">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="I4">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="J4">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>122.737381864632</v>
+        <v>126.926974</v>
       </c>
       <c r="N4">
-        <v>122.737381864632</v>
+        <v>380.780922</v>
       </c>
       <c r="O4">
-        <v>0.4423399474998339</v>
+        <v>0.1760854876389666</v>
       </c>
       <c r="P4">
-        <v>0.4423399474998339</v>
+        <v>0.1760854876389665</v>
       </c>
       <c r="Q4">
-        <v>12184.93360258485</v>
+        <v>13301.28698186218</v>
       </c>
       <c r="R4">
-        <v>12184.93360258485</v>
+        <v>119711.5828367596</v>
       </c>
       <c r="S4">
-        <v>0.1664411774423918</v>
+        <v>0.06818771738232766</v>
       </c>
       <c r="T4">
-        <v>0.1664411774423918</v>
+        <v>0.06818771738232764</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="H5">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="I5">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="J5">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>67.75439625905661</v>
+        <v>505.8908573333333</v>
       </c>
       <c r="N5">
-        <v>67.75439625905661</v>
+        <v>1517.672572</v>
       </c>
       <c r="O5">
-        <v>0.2441837656042616</v>
+        <v>0.7018211771568338</v>
       </c>
       <c r="P5">
-        <v>0.2441837656042616</v>
+        <v>0.7018211771568337</v>
       </c>
       <c r="Q5">
-        <v>9236.31836723253</v>
+        <v>69142.35266249836</v>
       </c>
       <c r="R5">
-        <v>9236.31836723253</v>
+        <v>622281.1739624853</v>
       </c>
       <c r="S5">
-        <v>0.1261643070380669</v>
+        <v>0.3544513556416491</v>
       </c>
       <c r="T5">
-        <v>0.1261643070380669</v>
+        <v>0.3544513556416491</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="H6">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="I6">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="J6">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.9811983921349</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N6">
-        <v>86.9811983921349</v>
+        <v>264.024102</v>
       </c>
       <c r="O6">
-        <v>0.3134762868959047</v>
+        <v>0.1220933352041998</v>
       </c>
       <c r="P6">
-        <v>0.3134762868959047</v>
+        <v>0.1220933352041997</v>
       </c>
       <c r="Q6">
-        <v>11857.32712075912</v>
+        <v>12028.44929049916</v>
       </c>
       <c r="R6">
-        <v>11857.32712075912</v>
+        <v>108256.0436144925</v>
       </c>
       <c r="S6">
-        <v>0.1619662077502085</v>
+        <v>0.06166264226060552</v>
       </c>
       <c r="T6">
-        <v>0.1619662077502085</v>
+        <v>0.06166264226060551</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="H7">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="I7">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="J7">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>122.737381864632</v>
+        <v>126.926974</v>
       </c>
       <c r="N7">
-        <v>122.737381864632</v>
+        <v>380.780922</v>
       </c>
       <c r="O7">
-        <v>0.4423399474998339</v>
+        <v>0.1760854876389666</v>
       </c>
       <c r="P7">
-        <v>0.4423399474998339</v>
+        <v>0.1760854876389665</v>
       </c>
       <c r="Q7">
-        <v>16731.63066980767</v>
+        <v>17347.67385390641</v>
       </c>
       <c r="R7">
-        <v>16731.63066980767</v>
+        <v>156129.0646851576</v>
       </c>
       <c r="S7">
-        <v>0.2285471878667656</v>
+        <v>0.08893111498187971</v>
       </c>
       <c r="T7">
-        <v>0.2285471878667656</v>
+        <v>0.08893111498187968</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="H8">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="I8">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="J8">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.75439625905661</v>
+        <v>505.8908573333333</v>
       </c>
       <c r="N8">
-        <v>67.75439625905661</v>
+        <v>1517.672572</v>
       </c>
       <c r="O8">
-        <v>0.2441837656042616</v>
+        <v>0.7018211771568338</v>
       </c>
       <c r="P8">
-        <v>0.2441837656042616</v>
+        <v>0.7018211771568337</v>
       </c>
       <c r="Q8">
-        <v>1913.627957479956</v>
+        <v>14746.2355341282</v>
       </c>
       <c r="R8">
-        <v>1913.627957479956</v>
+        <v>132716.1198071538</v>
       </c>
       <c r="S8">
-        <v>0.02613937021060804</v>
+        <v>0.07559510161877581</v>
       </c>
       <c r="T8">
-        <v>0.02613937021060804</v>
+        <v>0.07559510161877581</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="H9">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="I9">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="J9">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>86.9811983921349</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N9">
-        <v>86.9811983921349</v>
+        <v>264.024102</v>
       </c>
       <c r="O9">
-        <v>0.3134762868959047</v>
+        <v>0.1220933352041998</v>
       </c>
       <c r="P9">
-        <v>0.3134762868959047</v>
+        <v>0.1220933352041997</v>
       </c>
       <c r="Q9">
-        <v>2456.662035359085</v>
+        <v>2565.350172763542</v>
       </c>
       <c r="R9">
-        <v>2456.662035359085</v>
+        <v>23088.15155487187</v>
       </c>
       <c r="S9">
-        <v>0.033556992190458</v>
+        <v>0.01315101108679457</v>
       </c>
       <c r="T9">
-        <v>0.033556992190458</v>
+        <v>0.01315101108679457</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="H10">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="I10">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="J10">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>122.737381864632</v>
+        <v>126.926974</v>
       </c>
       <c r="N10">
-        <v>122.737381864632</v>
+        <v>380.780922</v>
       </c>
       <c r="O10">
-        <v>0.4423399474998339</v>
+        <v>0.1760854876389666</v>
       </c>
       <c r="P10">
-        <v>0.4423399474998339</v>
+        <v>0.1760854876389665</v>
       </c>
       <c r="Q10">
-        <v>3466.545321517171</v>
+        <v>3699.800119148822</v>
       </c>
       <c r="R10">
-        <v>3466.545321517171</v>
+        <v>33298.2010723394</v>
       </c>
       <c r="S10">
-        <v>0.04735158219067653</v>
+        <v>0.01896665527475919</v>
       </c>
       <c r="T10">
-        <v>0.04735158219067653</v>
+        <v>0.01896665527475919</v>
       </c>
     </row>
   </sheetData>
